--- a/xdebug.xlsx
+++ b/xdebug.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\xdebug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F298616F-B347-4B37-85DE-17F636A4C8CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3521AA07-7635-43E0-B0DE-8C9B0FDB9682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="URL" sheetId="2" r:id="rId1"/>
     <sheet name="Config" sheetId="1" r:id="rId2"/>
     <sheet name="phpinfo.php" sheetId="3" r:id="rId3"/>
+    <sheet name="Xdebugのインストール" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>C:\Windows\System32\drivers\etc\hosts</t>
   </si>
@@ -104,6 +105,39 @@
   </si>
   <si>
     <t>xdebug---phpinfo.php</t>
+  </si>
+  <si>
+    <t>https://xdebug.org/wizard</t>
+  </si>
+  <si>
+    <t>copy và paste toàn bộ nội dung của http://xdebug.xyz/phpinfo.php</t>
+  </si>
+  <si>
+    <t>ダウンロードした dll ファイルを C:\xampp\php\ext フォルダにコピーします</t>
+  </si>
+  <si>
+    <t>php_xdebug-3.1.3-7.3-vc15-x86_64.dll</t>
+  </si>
+  <si>
+    <t>C:\xampp\php\ext</t>
+  </si>
+  <si>
+    <t>C:\xampp\php\php.ini</t>
+  </si>
+  <si>
+    <t>[XDebug 3.X.X]</t>
+  </si>
+  <si>
+    <t>xdebug.mode=debug</t>
+  </si>
+  <si>
+    <t>xdebug.start_with_request=yes</t>
+  </si>
+  <si>
+    <t>zend_extension = "C:\xampp\php\ext\php_xdebug-3.1.3-7.3-vc15-x86_64.dll"</t>
+  </si>
+  <si>
+    <t>Apacheの Stopボタンを押し、再度、Startボタンをクリックして再起動します。</t>
   </si>
 </sst>
 </file>
@@ -228,6 +262,143 @@
         <a:xfrm>
           <a:off x="609600" y="571500"/>
           <a:ext cx="10285714" cy="6476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>132495</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>123167</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E7D1DB8-A243-4344-AE12-33B7FC031E13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="6838095" cy="5266667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>170514</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>189762</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA31BD99-7397-478E-B85A-9A89AE1DE538}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="5905500"/>
+          <a:ext cx="7485714" cy="5904762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>551467</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>132762</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6543406C-438E-4754-A1C9-1C09B50B1036}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="14097000"/>
+          <a:ext cx="7866667" cy="4704762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -593,7 +764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FDC6040-4785-4FDF-A512-53A3FD700CF5}">
   <dimension ref="A2:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
@@ -613,4 +784,78 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C862DDB6-FE89-4924-92E7-A20DD8195FF7}">
+  <dimension ref="A2:N74"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="P66" sqref="P66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{2E9A0216-0F11-4DD4-8F06-683457D74055}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/xdebug.xlsx
+++ b/xdebug.xlsx
@@ -8,15 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\xdebug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3521AA07-7635-43E0-B0DE-8C9B0FDB9682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8AEB08E-B445-419A-BB3A-F3385E2C3EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="URL" sheetId="2" r:id="rId1"/>
     <sheet name="Config" sheetId="1" r:id="rId2"/>
     <sheet name="phpinfo.php" sheetId="3" r:id="rId3"/>
     <sheet name="Xdebugのインストール" sheetId="4" r:id="rId4"/>
+    <sheet name="PHP Debug のインストール" sheetId="5" r:id="rId5"/>
+    <sheet name="ドキュメントフォルダの設定" sheetId="6" r:id="rId6"/>
+    <sheet name="launch.json" sheetId="7" r:id="rId7"/>
+    <sheet name="ブレークポイントの設定" sheetId="8" r:id="rId8"/>
+    <sheet name="デバッグの待ち受け開始" sheetId="9" r:id="rId9"/>
+    <sheet name="デバッグの実行(HTTPリクエストの送信)" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>C:\Windows\System32\drivers\etc\hosts</t>
   </si>
@@ -110,9 +116,6 @@
     <t>https://xdebug.org/wizard</t>
   </si>
   <si>
-    <t>copy và paste toàn bộ nội dung của http://xdebug.xyz/phpinfo.php</t>
-  </si>
-  <si>
     <t>ダウンロードした dll ファイルを C:\xampp\php\ext フォルダにコピーします</t>
   </si>
   <si>
@@ -138,6 +141,27 @@
   </si>
   <si>
     <t>Apacheの Stopボタンを押し、再度、Startボタンをクリックして再起動します。</t>
+  </si>
+  <si>
+    <t>PHP Debug のインストール</t>
+  </si>
+  <si>
+    <t>Open xdebug folder</t>
+  </si>
+  <si>
+    <t>launch.json ファイルは、オープンしたフォルダ直下の .vscode\launch.json に作成されます。</t>
+  </si>
+  <si>
+    <t>launch.json の作成</t>
+  </si>
+  <si>
+    <t>Mode php</t>
+  </si>
+  <si>
+    <t>Ctrl A để copy và paste toàn bộ nội dung của http://xdebug.xyz/phpinfo.php</t>
+  </si>
+  <si>
+    <t>Access http://xdebug.xyz/index.php</t>
   </si>
 </sst>
 </file>
@@ -399,6 +423,520 @@
         <a:xfrm>
           <a:off x="609600" y="14097000"/>
           <a:ext cx="7866667" cy="4704762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228054</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161457</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34EE9F44-02E4-4249-AC5C-A59A8D00DBE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733425" y="419100"/>
+          <a:ext cx="4371429" cy="3742857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>428190</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>37548</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D656CD0-AF71-4C58-97F8-97789C96E59B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="3476190" cy="4419048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>179657</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>170619</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCF3C368-29F1-4DEC-9F20-96B4FECF525E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="10542857" cy="6647619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>189486</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>113667</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5AC33F1-1EA1-435D-AEB1-9BDDD404AED9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="7620000"/>
+          <a:ext cx="8114286" cy="5066667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>227428</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>18333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{292A563E-9A2C-4122-881A-799C5312408D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="12954000"/>
+          <a:ext cx="9371428" cy="5733333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>542324</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>132976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E15E63E-E094-4AAF-A174-7FB1C888159D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="190500"/>
+          <a:ext cx="4809524" cy="2990476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>199009</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>75333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8464ACC8-C214-44B0-A999-3428C3CC0138}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="8123809" cy="6933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>446628</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>84857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6843458-859F-431B-980F-A762D1362768}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="7620000"/>
+          <a:ext cx="8371428" cy="6942857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>65600</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>180714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49944C6A-986A-4C45-83E4-1B0A1B9E5F98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="8600000" cy="2085714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>265676</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>84857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27DEB2FB-B259-4BE4-9170-A401C5EBB361}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="2667000"/>
+          <a:ext cx="8190476" cy="6942857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>17981</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>85119</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C4FF71D-3C00-4AC2-A555-D00DC92A32C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="9906000"/>
+          <a:ext cx="8552381" cy="4847619"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -676,7 +1214,7 @@
   <dimension ref="A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,6 +1229,27 @@
     <hyperlink ref="A2" r:id="rId1" xr:uid="{AD4566E0-8239-4971-A114-0E0BD05FCD0F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23636624-A7A2-4628-8B3B-40CA492642E4}">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -764,7 +1323,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FDC6040-4785-4FDF-A512-53A3FD700CF5}">
   <dimension ref="A2:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
@@ -790,8 +1349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C862DDB6-FE89-4924-92E7-A20DD8195FF7}">
   <dimension ref="A2:N74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="P66" sqref="P66"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,52 +1362,52 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N11" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -858,4 +1417,107 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1612060-34FD-46D9-820D-6798F0B40830}">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0A9FFBA-C16C-4015-A977-4B1AFE97B07D}">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14:J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E29149DE-A903-462D-B2C5-AF1D8F355F0D}">
+  <dimension ref="A2:B40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="C101" sqref="C101"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE45C489-6E35-4C48-AA15-2756655C9D5A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE28AB3A-DC0D-41E4-AFAE-0F0D72B143D2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>